--- a/src/test/resources/chatbot_data.xlsx
+++ b/src/test/resources/chatbot_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\DEPI\Oman\OmanProject\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\DEPI\Oman\OmanProject\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D96DF09A-2BC2-4272-99EF-E4DFD542E24C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4BCA250-C951-47DC-8AF3-3AFE3B0F6219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,79 +25,187 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
-  <si>
-    <t>Question</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>Answer</t>
   </si>
   <si>
-    <t>/ ما هو أثر النظام الأساسي (الدستور) على مبادئ الفصل بين السلطات ؟</t>
-  </si>
-  <si>
-    <t>هل هنالك حرية للتعبير وحقوق الإعلام في التشريع والواقع؟</t>
-  </si>
-  <si>
-    <t>هل هنالك. فعالية لقوانين مكافحة غسل الأموال وتمويل الإرهاب؟</t>
-  </si>
-  <si>
-    <t>هل توجد هنالك حماية لحقوق العمال الوافدين ؟</t>
-  </si>
-  <si>
-    <t>هل ساهمت القوانين وبالأخص قانون الشركات في جذب الاستثمار الأجنبي إلى سلطنة عمان؟ </t>
-  </si>
-  <si>
-    <t>هل توجد قوانين لحماية الملكية الفكرية ومطابقتها للاتفاقيات الدولية؟ </t>
-  </si>
-  <si>
-    <t>هل يوجد قانون للأحوال الشخصية ومدى تأثيره على حقوق المرأة؟</t>
-  </si>
-  <si>
-    <t>ما مدى كفاءة القضاء الإداري وآليات الرقابة على الإدارة ؟</t>
-  </si>
-  <si>
-    <t>هل توجد حماية للبيانات الشخصية والتنظيم القانوني للتعاملات الإلكترونية؟ </t>
-  </si>
-  <si>
-    <t>هل توجد قوانين للبيئة وحماية الموارد الطبيعية ؟</t>
-  </si>
-  <si>
-    <t>هل هنالك قوانين لمكافحة الفساد وتعزيز حوكمة القطاع العام ؟</t>
-  </si>
-  <si>
-    <t>هل يوجد قانون لتنظيم الملكية العقارية وتسوية النزاعات؟ </t>
-  </si>
-  <si>
-    <t>هل توجد تشريعات لتنظيم القطاع المصرفي وحماية العميل المالي ؟</t>
-  </si>
-  <si>
-    <t>هل توجد تشريعات للمنتجات وحماية المستهلك؟ </t>
-  </si>
-  <si>
-    <t>ما هو أثر الاتفاقيات الدولية على التشريع الوطني؟</t>
-  </si>
-  <si>
-    <t>هل توجد تشريعات لتنظيم المناطق الحرة والاقتصادية الخاصة؟ </t>
-  </si>
-  <si>
-    <t>ما هو الإطار القانوني للقضاء الإلكتروني والجريمة الإلكترونية؟ </t>
-  </si>
-  <si>
-    <t>ما هي التشريعات في مجالات التقاضى والتحكيم والوساطة البديلة لتسوية المنازعات التجارية؟ </t>
-  </si>
-  <si>
-    <t>هل توجد قوانين لحماية التراث الثقافي والمواقع الأثرية والتوازن مع التنمية ؟</t>
-  </si>
-  <si>
-    <t>هل توجد ضمانات للقضاء ونزاهته؟</t>
+    <t>Questions</t>
+  </si>
+  <si>
+    <t>هل يحق للطفل أن يُحمى من العنف والإساءة، ؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">هل يحصل الطفل على التطعيمات مجاناً
+</t>
+  </si>
+  <si>
+    <t>هل يسمح بدخول حيوان من دولة موبوءة؟</t>
+  </si>
+  <si>
+    <t>ما مدة حجر الحيوانات المشتبه بإصابتها؟</t>
+  </si>
+  <si>
+    <t>هل يجوز إجراء تجارب زراعية في أرض خاصة دون موافقة؟</t>
+  </si>
+  <si>
+    <t>هل يجوز إنشاء مشتل دون ترخيص؟</t>
+  </si>
+  <si>
+    <t>هل يجوز تقديم طلب إعادة هيكلة بعد صدور حكم نهائي بإشهار الإفلاس؟</t>
+  </si>
+  <si>
+    <t>هل يجوز للجهات فرض رسوم مقابل الخدمات التي تقدمها؟</t>
+  </si>
+  <si>
+    <t>ما القيد الزمني لتقديم طلب إعادة الهيكلة من تاريخ اضطراب الأعمال؟</t>
+  </si>
+  <si>
+    <t>ما هي الأنشطة الإعلامية التي تتطلب ترخيصاً؟</t>
+  </si>
+  <si>
+    <t>هل تُعد الوثيقة الإلكترونية وثيقة مكتوبة قانونًا؟</t>
+  </si>
+  <si>
+    <t>هل يجوز للإعلامي العمل في جلب الإعلانات؟</t>
+  </si>
+  <si>
+    <t>هل يجوز إبرام العقود بوسائل إلكترونية؟</t>
+  </si>
+  <si>
+    <t>ما المدة الممنوحة لتصحيح أوضاع ملاك الثروة الحيوانية؟</t>
+  </si>
+  <si>
+    <t>ما مدة الترخيص بمزاولة مهنة الصيدلة؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ما هي المعلومات التي تضمنها ترخيص الصيدلي أو مساعد الصيدلي؟
+</t>
+  </si>
+  <si>
+    <t>هل يجوز الإعلان عن الأدوية دون موافقة؟</t>
+  </si>
+  <si>
+    <t>ما الجهة المختصة بتنسيق الجهود لمكافحة الاتجار بالبشر؟</t>
+  </si>
+  <si>
+    <t>هل تلتزم مؤسسات التعليم العالي بترخيص برامجها الدراسية؟</t>
+  </si>
+  <si>
+    <t>ما هي البراءة في قانون الأوسمة؟</t>
+  </si>
+  <si>
+    <t>من يملك سلطة منح الأوسمة؟</t>
+  </si>
+  <si>
+    <t>هل يطبق قانون جرائم تقنية المعلومات على الجرائم المرتكبة خارج السلطنة؟</t>
+  </si>
+  <si>
+    <t>ما هي الأنظمة التي يمكن لمؤسسة التعليم العالي استخدامها لتقديم برامجها الدراسية؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ما الذي تلتزم به مؤسسة التعليم العالي فيما يتعلق ببرامجها الدراسية؟
+</t>
+  </si>
+  <si>
+    <t>كيف يتم إنشاء المحمية الطبيعية؟</t>
+  </si>
+  <si>
+    <t>ما هي الأهداف الأساسية للدفاع المدني؟</t>
+  </si>
+  <si>
+    <t>هل يحق للمفتش العام الاستيلاء على وسائل نقل خاصة؟</t>
+  </si>
+  <si>
+    <t>من هم الفئات المعفاة من التطوع الإجباري في الدفاع المدني؟</t>
+  </si>
+  <si>
+    <t>ما هي شروط الحماية من الحرائق في المباني والمنشآت؟</t>
+  </si>
+  <si>
+    <t>هل يسمح لرجال الدفاع المدني بدخول البيوت دون إذن في الحرائق؟</t>
+  </si>
+  <si>
+    <t>هل يجوز لصاحب عمل فصل موظف بسبب غيابه لأعمال الدفاع المدني؟</t>
+  </si>
+  <si>
+    <t>من الجهة التي تحقق في أسباب الحرائق الكبرى؟</t>
+  </si>
+  <si>
+    <t>ما هي عقوبة مخالفة أحكام قانون الدفاع المدني؟</t>
+  </si>
+  <si>
+    <t>ما هو ترتيب المصادر القانونية عند غياب نص في قانون التجارة؟</t>
+  </si>
+  <si>
+    <t>هل شراء عقار بقصد تأجيره يعتبر عملاً تجارياً؟</t>
+  </si>
+  <si>
+    <t>هل يمكن لشخص عمره 17 سنة مزاولة التجارة؟</t>
+  </si>
+  <si>
+    <t>كم سنة يجب على التاجر الاحتفاظ بدفاتر اليومية؟</t>
+  </si>
+  <si>
+    <t>هل التضامن مفترض بين المدينين في الالتزام التجاري؟</t>
+  </si>
+  <si>
+    <t>متى تسقط الالتزامات التجارية تجاه التاجر بالتقادم؟</t>
+  </si>
+  <si>
+    <t>هل يحق للمستشفى إخبار أهلي بنتيجة الفحص الطبي للزواج؟</t>
+  </si>
+  <si>
+    <t>ماذا يطلب المأذون قبل كتابة عقد الزواج؟</t>
+  </si>
+  <si>
+    <t>ما هي الغرامة المالية لمخالفة مرسوم الفحص الطبي؟</t>
+  </si>
+  <si>
+    <t>ماذا أفعل إذا رفضت محكمتان مختلفتان نظر دعوتي؟</t>
+  </si>
+  <si>
+    <t>هل يتوقف تنفيذ الحكم بمجرد تقديم طلب لهيئة تنازع الاختصاص؟</t>
+  </si>
+  <si>
+    <t>هل يمكنني استئناف حكم هيئة تنازع الاختصاص؟</t>
+  </si>
+  <si>
+    <t>هل يحصل الموظف الخليجي في الحكومة العمانية على علاوة دورية؟</t>
+  </si>
+  <si>
+    <t>هل يستحق الموظف السعودي أو الإماراتي في عمان بدل منطقة نائية؟</t>
+  </si>
+  <si>
+    <t>ما هي أنواع الإجازات الممنوحة للخليجيين في الخدمة المدنية؟</t>
+  </si>
+  <si>
+    <t>أين أذهب للحصول على تصريح يخص التراث الجيولوجي؟</t>
+  </si>
+  <si>
+    <t>هل يمكن لاتحاد رياضي استضافة بطولة دولية بمفرده؟</t>
+  </si>
+  <si>
+    <t>من يفصل في نزاع بين لاعب واتحاده الرياضي؟</t>
+  </si>
+  <si>
+    <t>هل مجلس المناقصات جهة مستقلة مالياً؟</t>
+  </si>
+  <si>
+    <t>من الجهة التي تصنف المقاولين والموردين في عمان؟</t>
+  </si>
+  <si>
+    <t>من هم أعضاء مجلس إدارة البنك المركزي بصفتهم الوظيفية؟</t>
+  </si>
+  <si>
+    <t>ما هي صلاحيات أمين عام شؤون البلاط السلطاني؟</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,16 +223,23 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color rgb="FF1F1F1F"/>
-      <name val="Google Sans Text"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Google Sans Text"/>
     </font>
   </fonts>
   <fills count="2">
@@ -177,7 +292,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -186,12 +301,15 @@
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -474,10 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -487,113 +605,288 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15" thickBot="1">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="141" thickBot="1">
+    </row>
+    <row r="2" spans="1:2" ht="28.2" thickBot="1">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:2" ht="125.4" thickBot="1">
+    <row r="3" spans="1:2" ht="28.2" thickBot="1">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:2" ht="125.4" thickBot="1">
+    <row r="4" spans="1:2" ht="28.2" thickBot="1">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:2" ht="94.2" thickBot="1">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:2" ht="15" thickBot="1">
+      <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="187.8" thickBot="1">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:2" ht="28.2" thickBot="1">
+      <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="141" thickBot="1">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:2" ht="15" thickBot="1">
+      <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="125.4" thickBot="1">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:2" ht="28.2" thickBot="1">
+      <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="125.4" thickBot="1">
+    <row r="9" spans="1:2" ht="27" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="156.6" thickBot="1">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:2" ht="28.2" thickBot="1">
+      <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="109.8" thickBot="1">
+    <row r="11" spans="1:2" ht="27" thickBot="1">
       <c r="A11" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="141" thickBot="1">
+    <row r="12" spans="1:2" ht="27" thickBot="1">
       <c r="A12" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="109.8" thickBot="1">
+    <row r="13" spans="1:2" ht="27" thickBot="1">
       <c r="A13" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="125.4" thickBot="1">
+    <row r="14" spans="1:2" ht="15" thickBot="1">
       <c r="A14" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="94.2" thickBot="1">
+    <row r="15" spans="1:2" ht="27" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="94.2" thickBot="1">
+    <row r="16" spans="1:2" ht="15" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="125.4" thickBot="1">
+    <row r="17" spans="1:1" ht="40.200000000000003" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="125.4" thickBot="1">
+    <row r="18" spans="1:1" ht="15" thickBot="1">
       <c r="A18" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="172.2" thickBot="1">
+    <row r="19" spans="1:1" ht="27" thickBot="1">
       <c r="A19" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="156.6" thickBot="1">
+    <row r="20" spans="1:1" ht="27" thickBot="1">
       <c r="A20" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="63" thickBot="1">
+    <row r="21" spans="1:1" ht="15" thickBot="1">
       <c r="A21" s="5" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="15" thickBot="1">
+      <c r="A22" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="27" thickBot="1">
+      <c r="A23" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="27" thickBot="1">
+      <c r="A24" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="40.200000000000003" thickBot="1">
+      <c r="A25" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="15" thickBot="1">
+      <c r="A26" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="15" thickBot="1">
+      <c r="A27" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="28.8" thickBot="1">
+      <c r="A28" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="28.8" thickBot="1">
+      <c r="A29" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="28.8" thickBot="1">
+      <c r="A30" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="28.8" thickBot="1">
+      <c r="A31" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="28.8" thickBot="1">
+      <c r="A32" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="28.8" thickBot="1">
+      <c r="A33" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="28.8" thickBot="1">
+      <c r="A34" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="28.8" thickBot="1">
+      <c r="A35" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="28.8" thickBot="1">
+      <c r="A36" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="28.8" thickBot="1">
+      <c r="A37" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="28.8" thickBot="1">
+      <c r="A38" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="28.8" thickBot="1">
+      <c r="A39" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="28.8" thickBot="1">
+      <c r="A40" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="28.8" thickBot="1">
+      <c r="A41" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="15" thickBot="1">
+      <c r="A42" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="28.8" thickBot="1">
+      <c r="A43" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="28.8" thickBot="1">
+      <c r="A44" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="28.8" thickBot="1">
+      <c r="A45" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" ht="28.8" thickBot="1">
+      <c r="A46" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" ht="28.8" thickBot="1">
+      <c r="A47" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="28.8" thickBot="1">
+      <c r="A48" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="28.8" thickBot="1">
+      <c r="A49" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="28.8" thickBot="1">
+      <c r="A50" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="28.8" thickBot="1">
+      <c r="A51" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="28.8" thickBot="1">
+      <c r="A52" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="15" thickBot="1">
+      <c r="A53" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="28.8" thickBot="1">
+      <c r="A54" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="28.8" thickBot="1">
+      <c r="A55" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" ht="28.8" thickBot="1">
+      <c r="A56" s="6" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
